--- a/classified_sentences.xlsx
+++ b/classified_sentences.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>Type 02: demand in imperative form + threat in active form</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>Type 02: demand in imperative form + threat in active form</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>Type 02: demand in imperative form + threat in active form</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>Type 02: demand in imperative form + threat in active form</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -12129,7 +12129,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>

--- a/classified_sentences.xlsx
+++ b/classified_sentences.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Type 02: demand in imperative form + threat in active form</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>Type 02: demand in imperative form + threat in active form</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>Type 02: demand in imperative form + threat in active form</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>Type 02: demand in imperative form + threat in active form</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>Type 02: demand in imperative form + threat in active form</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>Type 02: demand in imperative form + threat in active form</t>
         </is>
       </c>
     </row>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>Type 03: threat in active form + demand in active form</t>
+          <t>No Extortion</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>No Extortion</t>
+          <t>Type 03: threat in active form + demand in active form</t>
         </is>
       </c>
     </row>
